--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57344A81-2BA1-4918-B804-466B99AD72EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F530E-98CE-45A1-A2F1-A80F0D9C706C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -312,6 +312,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -457,7 +466,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,9 +479,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,19 +494,7 @@
     <xf numFmtId="37" fontId="8" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -537,6 +531,27 @@
     <xf numFmtId="37" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1029,7 +1044,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1054,7 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="2.625" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="14" max="14" width="1.375" customWidth="1"/>
@@ -1047,82 +1062,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+    <row r="2" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1133,19 +1148,19 @@
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="17"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1154,19 +1169,19 @@
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1175,19 +1190,19 @@
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1196,19 +1211,19 @@
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1217,19 +1232,19 @@
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1238,19 +1253,19 @@
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1259,19 +1274,19 @@
       <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1280,19 +1295,19 @@
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="25"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1301,26 +1316,25 @@
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="25"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="20"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="K1:O1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F530E-98CE-45A1-A2F1-A80F0D9C706C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A80B40-6965-4242-8505-E07DDD16DA4D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Assets</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Paid cash for rent, $3,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -532,6 +535,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -546,12 +555,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1054,7 +1057,7 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="2.625" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="14" max="14" width="1.375" customWidth="1"/>
@@ -1062,28 +1065,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1093,22 +1096,22 @@
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1198,7 +1201,9 @@
       <c r="H6" s="14"/>
       <c r="I6" s="19"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="19"/>
+      <c r="K6" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="L6" s="16"/>
       <c r="M6" s="19"/>
       <c r="N6" s="18"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A80B40-6965-4242-8505-E07DDD16DA4D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43F1721-BD37-4559-B45E-75D62680EE14}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Issue stock for cash, $6,500</t>
   </si>
   <si>
-    <t>Sold memberships to customers for cash, $1,000</t>
-  </si>
-  <si>
     <t>Purchased supplies for cash, $200</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Sold memberships for cash, $1,000</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="13"/>
@@ -1191,7 +1191,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="13"/>
@@ -1202,7 +1202,7 @@
       <c r="I6" s="19"/>
       <c r="J6" s="15"/>
       <c r="K6" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="19"/>
@@ -1214,7 +1214,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="13"/>
@@ -1235,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="13"/>
@@ -1256,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="13"/>
@@ -1277,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="13"/>
@@ -1298,7 +1298,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="13"/>
@@ -1319,7 +1319,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="13"/>
@@ -1336,7 +1336,6 @@
       <c r="O12" s="20"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C2:E2"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43F1721-BD37-4559-B45E-75D62680EE14}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D566A-6328-4706-86D9-774D3D323420}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1336,6 +1336,7 @@
       <c r="O12" s="20"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C2:E2"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Initial.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D566A-6328-4706-86D9-774D3D323420}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724467AA-9461-439B-8AE9-9E3A5D073342}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Assets</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>8.</t>
-  </si>
-  <si>
-    <t>9.</t>
   </si>
   <si>
     <t>Issue stock for cash, $6,500</t>
@@ -216,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -324,6 +321,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -469,7 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,6 +563,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1149,7 +1161,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
@@ -1170,7 +1182,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="13"/>
@@ -1191,7 +1203,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="13"/>
@@ -1202,7 +1214,7 @@
       <c r="I6" s="19"/>
       <c r="J6" s="15"/>
       <c r="K6" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="19"/>
@@ -1214,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="13"/>
@@ -1235,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="13"/>
@@ -1256,7 +1268,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="13"/>
@@ -1277,7 +1289,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="13"/>
@@ -1298,7 +1310,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="13"/>
@@ -1315,25 +1327,23 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="C12" s="28"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="20"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="18"/>
-      <c r="O12" s="20"/>
+      <c r="O12" s="28"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
